--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -1768,6 +1768,9 @@
       <c r="I45">
         <v>0.5155290707088481</v>
       </c>
+      <c r="J45">
+        <v>0.2388379152847414</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
@@ -1794,6 +1797,9 @@
       <c r="H46">
         <v>0.6511691608790895</v>
       </c>
+      <c r="I46">
+        <v>0.3744780054549828</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
@@ -1817,6 +1823,9 @@
       <c r="G47">
         <v>0.4103629790234248</v>
       </c>
+      <c r="H47">
+        <v>0.1336718235993181</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
@@ -1837,8 +1846,11 @@
       <c r="F48">
         <v>0.3650317637713285</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48">
+        <v>0.08834060834722172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -1854,8 +1866,11 @@
       <c r="E49">
         <v>0.2981703418352746</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0.02147918641116785</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -1868,8 +1883,11 @@
       <c r="D50">
         <v>0.268584139478558</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="E50">
+        <v>-0.00810701594554874</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -1879,18 +1897,27 @@
       <c r="C51">
         <v>0.2504334827489171</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="D51">
+        <v>-0.02625767267518964</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B52">
         <v>0.2324016585002178</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="C52">
+        <v>-0.04428949692388896</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="B53">
+        <v>-0.09587373626955231</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -489,28 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.2177157015159319</v>
+        <v>-0.1220406607065741</v>
       </c>
       <c r="C2">
-        <v>-0.1220406607065741</v>
+        <v>-0.3824596977052969</v>
       </c>
       <c r="D2">
-        <v>-0.3824596977052969</v>
+        <v>0.4529952984531944</v>
       </c>
       <c r="E2">
-        <v>0.4529952984531944</v>
+        <v>0.3529159385505728</v>
       </c>
       <c r="F2">
-        <v>0.3529159385505728</v>
+        <v>-0.0008705675291234075</v>
       </c>
       <c r="G2">
-        <v>-0.0008705675291234075</v>
+        <v>0.1473068229033219</v>
       </c>
       <c r="H2">
-        <v>0.1473068229033219</v>
+        <v>0.3047528119074769</v>
       </c>
       <c r="I2">
-        <v>0.3047528119074769</v>
+        <v>-0.1959066446185939</v>
+      </c>
+      <c r="J2">
+        <v>0.08445123591687528</v>
+      </c>
+      <c r="K2">
+        <v>-0.08752362192813637</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -518,25 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-0.1395947820665385</v>
+        <v>-0.4000138190652613</v>
       </c>
       <c r="C3">
-        <v>-0.4000138190652613</v>
+        <v>0.4354411770932299</v>
       </c>
       <c r="D3">
-        <v>0.4354411770932299</v>
+        <v>0.3353618171906084</v>
       </c>
       <c r="E3">
-        <v>0.3353618171906084</v>
+        <v>-0.01842468888908786</v>
       </c>
       <c r="F3">
-        <v>-0.01842468888908786</v>
+        <v>0.1297527015433575</v>
       </c>
       <c r="G3">
-        <v>0.1297527015433575</v>
+        <v>0.2871986905475125</v>
       </c>
       <c r="H3">
-        <v>0.2871986905475125</v>
+        <v>-0.2134607659785583</v>
+      </c>
+      <c r="I3">
+        <v>0.06689711455691082</v>
+      </c>
+      <c r="J3">
+        <v>-0.1050777432881008</v>
+      </c>
+      <c r="K3">
+        <v>0.2007847964582307</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -544,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.3119065001142551</v>
+        <v>0.5235484960442361</v>
       </c>
       <c r="C4">
-        <v>0.5235484960442361</v>
+        <v>0.4234691361416146</v>
       </c>
       <c r="D4">
-        <v>0.4234691361416146</v>
+        <v>0.06968263006191837</v>
       </c>
       <c r="E4">
-        <v>0.06968263006191837</v>
+        <v>0.2178600204943637</v>
       </c>
       <c r="F4">
-        <v>0.2178600204943637</v>
+        <v>0.3753060094985187</v>
       </c>
       <c r="G4">
-        <v>0.3753060094985187</v>
+        <v>-0.1253534470275521</v>
       </c>
       <c r="H4">
-        <v>-0.1253534470275521</v>
+        <v>0.155004433507917</v>
       </c>
       <c r="I4">
-        <v>0.155004433507917</v>
+        <v>-0.01697042433709459</v>
       </c>
       <c r="J4">
-        <v>-0.01697042433709459</v>
+        <v>0.2888921154092369</v>
       </c>
       <c r="K4">
-        <v>0.2888921154092369</v>
+        <v>-0.3234378372780493</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -579,31 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.7021231295320197</v>
+        <v>0.6020437696293982</v>
       </c>
       <c r="C5">
-        <v>0.6020437696293982</v>
+        <v>0.248257263549702</v>
       </c>
       <c r="D5">
-        <v>0.248257263549702</v>
+        <v>0.3964346539821473</v>
       </c>
       <c r="E5">
-        <v>0.3964346539821473</v>
+        <v>0.5538806429863024</v>
       </c>
       <c r="F5">
-        <v>0.5538806429863024</v>
+        <v>0.0532211864602315</v>
       </c>
       <c r="G5">
-        <v>0.0532211864602315</v>
+        <v>0.3335790669957007</v>
       </c>
       <c r="H5">
-        <v>0.3335790669957007</v>
+        <v>0.161604209150689</v>
       </c>
       <c r="I5">
-        <v>0.161604209150689</v>
+        <v>0.4674667488970205</v>
       </c>
       <c r="J5">
-        <v>0.4674667488970205</v>
+        <v>-0.1448632037902657</v>
+      </c>
+      <c r="K5">
+        <v>0.5435081814088458</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,28 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1.514070997382048</v>
+        <v>1.160284491302352</v>
       </c>
       <c r="C6">
-        <v>1.160284491302352</v>
+        <v>1.308461881734797</v>
       </c>
       <c r="D6">
-        <v>1.308461881734797</v>
+        <v>1.465907870738952</v>
       </c>
       <c r="E6">
-        <v>1.465907870738952</v>
+        <v>0.9652484142128814</v>
       </c>
       <c r="F6">
-        <v>0.9652484142128814</v>
+        <v>1.245606294748351</v>
       </c>
       <c r="G6">
-        <v>1.245606294748351</v>
+        <v>1.073631436903339</v>
       </c>
       <c r="H6">
-        <v>1.073631436903339</v>
+        <v>1.379493976649671</v>
       </c>
       <c r="I6">
-        <v>1.379493976649671</v>
+        <v>0.7671640239623843</v>
+      </c>
+      <c r="J6">
+        <v>1.455535409161496</v>
+      </c>
+      <c r="K6">
+        <v>1.178844253737389</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -640,25 +664,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.2163102553365951</v>
+        <v>0.3644876457690405</v>
       </c>
       <c r="C7">
-        <v>0.3644876457690405</v>
+        <v>0.5219336347731955</v>
       </c>
       <c r="D7">
-        <v>0.5219336347731955</v>
+        <v>0.02127417824712469</v>
       </c>
       <c r="E7">
-        <v>0.02127417824712469</v>
+        <v>0.3016320587825939</v>
       </c>
       <c r="F7">
-        <v>0.3016320587825939</v>
+        <v>0.1296572009375822</v>
       </c>
       <c r="G7">
-        <v>0.1296572009375822</v>
+        <v>0.4355197406839137</v>
       </c>
       <c r="H7">
-        <v>0.4355197406839137</v>
+        <v>-0.1768102120033725</v>
+      </c>
+      <c r="I7">
+        <v>0.511561173195739</v>
+      </c>
+      <c r="J7">
+        <v>0.2348700177716323</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -666,30 +696,27 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.3684555432821496</v>
+        <v>0.5259015322863045</v>
       </c>
       <c r="C8">
-        <v>0.5259015322863045</v>
+        <v>0.0252420757602338</v>
       </c>
       <c r="D8">
-        <v>0.0252420757602338</v>
+        <v>0.305599956295703</v>
       </c>
       <c r="E8">
-        <v>0.305599956295703</v>
+        <v>0.1336250984506913</v>
       </c>
       <c r="F8">
-        <v>0.1336250984506913</v>
+        <v>0.4394876381970228</v>
       </c>
       <c r="G8">
-        <v>0.4394876381970228</v>
+        <v>-0.1728423144902634</v>
       </c>
       <c r="H8">
-        <v>-0.1728423144902634</v>
+        <v>0.5155290707088481</v>
       </c>
       <c r="I8">
-        <v>0.5155290707088481</v>
-      </c>
-      <c r="J8">
         <v>0.2388379152847414</v>
       </c>
     </row>
@@ -698,27 +725,24 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.661541622456546</v>
+        <v>0.1608821659304752</v>
       </c>
       <c r="C9">
-        <v>0.1608821659304752</v>
+        <v>0.4412400464659443</v>
       </c>
       <c r="D9">
-        <v>0.4412400464659443</v>
+        <v>0.2692651886209327</v>
       </c>
       <c r="E9">
-        <v>0.2692651886209327</v>
+        <v>0.5751277283672642</v>
       </c>
       <c r="F9">
-        <v>0.5751277283672642</v>
+        <v>-0.03720222432002201</v>
       </c>
       <c r="G9">
-        <v>-0.03720222432002201</v>
+        <v>0.6511691608790895</v>
       </c>
       <c r="H9">
-        <v>0.6511691608790895</v>
-      </c>
-      <c r="I9">
         <v>0.3744780054549828</v>
       </c>
     </row>
@@ -727,24 +751,21 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.07992401592518952</v>
+        <v>0.2004338646102796</v>
       </c>
       <c r="C10">
-        <v>0.2004338646102796</v>
+        <v>0.028459006765268</v>
       </c>
       <c r="D10">
-        <v>0.028459006765268</v>
+        <v>0.3343215465115995</v>
       </c>
       <c r="E10">
-        <v>0.3343215465115995</v>
+        <v>-0.2780084061756867</v>
       </c>
       <c r="F10">
-        <v>-0.2780084061756867</v>
+        <v>0.4103629790234248</v>
       </c>
       <c r="G10">
-        <v>0.4103629790234248</v>
-      </c>
-      <c r="H10">
         <v>0.1336718235993181</v>
       </c>
     </row>
@@ -753,21 +774,18 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.1551026493581833</v>
+        <v>-0.01687220848682837</v>
       </c>
       <c r="C11">
-        <v>-0.01687220848682837</v>
+        <v>0.2889903312595031</v>
       </c>
       <c r="D11">
-        <v>0.2889903312595031</v>
+        <v>-0.3233396214277831</v>
       </c>
       <c r="E11">
-        <v>-0.3233396214277831</v>
+        <v>0.3650317637713285</v>
       </c>
       <c r="F11">
-        <v>0.3650317637713285</v>
-      </c>
-      <c r="G11">
         <v>0.08834060834722172</v>
       </c>
     </row>
@@ -776,18 +794,15 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.08373363042288225</v>
+        <v>0.2221289093234493</v>
       </c>
       <c r="C12">
-        <v>0.2221289093234493</v>
+        <v>-0.3902010433638369</v>
       </c>
       <c r="D12">
-        <v>-0.3902010433638369</v>
+        <v>0.2981703418352746</v>
       </c>
       <c r="E12">
-        <v>0.2981703418352746</v>
-      </c>
-      <c r="F12">
         <v>0.02147918641116785</v>
       </c>
     </row>
@@ -796,15 +811,12 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.1925427069667326</v>
+        <v>-0.4197872457205535</v>
       </c>
       <c r="C13">
-        <v>-0.4197872457205535</v>
+        <v>0.268584139478558</v>
       </c>
       <c r="D13">
-        <v>0.268584139478558</v>
-      </c>
-      <c r="E13">
         <v>-0.00810701594554874</v>
       </c>
     </row>
@@ -813,12 +825,9 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.4379379024501944</v>
+        <v>0.2504334827489171</v>
       </c>
       <c r="C14">
-        <v>0.2504334827489171</v>
-      </c>
-      <c r="D14">
         <v>-0.02625767267518964</v>
       </c>
     </row>
@@ -827,18 +836,12 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.2324016585002178</v>
-      </c>
-      <c r="C15">
         <v>-0.04428949692388896</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B16">
-        <v>-0.09587373626955231</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -489,34 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>-0.2177157015159319</v>
+      </c>
+      <c r="C2">
         <v>-0.1220406607065741</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-0.3824596977052969</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.4529952984531944</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.3529159385505728</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-0.0008705675291234075</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.1473068229033219</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.3047528119074769</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-0.1959066446185939</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.08445123591687528</v>
-      </c>
-      <c r="K2">
-        <v>-0.08752362192813637</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>-0.1395947820665385</v>
+      </c>
+      <c r="C3">
         <v>-0.4000138190652613</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.4354411770932299</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.3353618171906084</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-0.01842468888908786</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.1297527015433575</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.2871986905475125</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.2134607659785583</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.06689711455691082</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.1050777432881008</v>
-      </c>
-      <c r="K3">
-        <v>0.2007847964582307</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>-0.3119065001142551</v>
+      </c>
+      <c r="C4">
         <v>0.5235484960442361</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.4234691361416146</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.06968263006191837</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.2178600204943637</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.3753060094985187</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-0.1253534470275521</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.155004433507917</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-0.01697042433709459</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.2888921154092369</v>
-      </c>
-      <c r="K4">
-        <v>-0.3234378372780493</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>0.7021231295320197</v>
+      </c>
+      <c r="C5">
         <v>0.6020437696293982</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.248257263549702</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.3964346539821473</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.5538806429863024</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.0532211864602315</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.3335790669957007</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.161604209150689</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.4674667488970205</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-0.1448632037902657</v>
-      </c>
-      <c r="K5">
-        <v>0.5435081814088458</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>1.514070997382048</v>
+      </c>
+      <c r="C6">
         <v>1.160284491302352</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.308461881734797</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.465907870738952</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.9652484142128814</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.245606294748351</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1.073631436903339</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.379493976649671</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.7671640239623843</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1.455535409161496</v>
-      </c>
-      <c r="K6">
-        <v>1.178844253737389</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,30 +664,33 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>0.2163102553365951</v>
+      </c>
+      <c r="C7">
         <v>0.3644876457690405</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.5219336347731955</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.02127417824712469</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.3016320587825939</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.1296572009375822</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.4355197406839137</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-0.1768102120033725</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.511561173195739</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.2348700177716323</v>
       </c>
     </row>
@@ -696,27 +699,30 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>0.3684555432821496</v>
+      </c>
+      <c r="C8">
         <v>0.5259015322863045</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.0252420757602338</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.305599956295703</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.1336250984506913</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.4394876381970228</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.1728423144902634</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.5155290707088481</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.2388379152847414</v>
       </c>
     </row>
@@ -725,24 +731,27 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0.661541622456546</v>
+      </c>
+      <c r="C9">
         <v>0.1608821659304752</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.4412400464659443</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.2692651886209327</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.5751277283672642</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.03720222432002201</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.6511691608790895</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.3744780054549828</v>
       </c>
     </row>
@@ -751,21 +760,24 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.07992401592518952</v>
+      </c>
+      <c r="C10">
         <v>0.2004338646102796</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.028459006765268</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.3343215465115995</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.2780084061756867</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.4103629790234248</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.1336718235993181</v>
       </c>
     </row>
@@ -774,18 +786,21 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>0.1551026493581833</v>
+      </c>
+      <c r="C11">
         <v>-0.01687220848682837</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.2889903312595031</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.3233396214277831</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.3650317637713285</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.08834060834722172</v>
       </c>
     </row>
@@ -794,15 +809,18 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>-0.08373363042288225</v>
+      </c>
+      <c r="C12">
         <v>0.2221289093234493</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.3902010433638369</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.2981703418352746</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.02147918641116785</v>
       </c>
     </row>
@@ -811,12 +829,15 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>0.1925427069667326</v>
+      </c>
+      <c r="C13">
         <v>-0.4197872457205535</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.268584139478558</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.00810701594554874</v>
       </c>
     </row>
@@ -825,9 +846,12 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.4379379024501944</v>
+      </c>
+      <c r="C14">
         <v>0.2504334827489171</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.02625767267518964</v>
       </c>
     </row>
@@ -836,12 +860,18 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>0.2324016585002178</v>
+      </c>
+      <c r="C15">
         <v>-0.04428949692388896</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.09587373626955231</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -44,6 +44,117 @@
   </si>
   <si>
     <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -446,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,34 +600,19 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.2177157015159319</v>
+        <v>0.3963761775604042</v>
       </c>
       <c r="C2">
-        <v>-0.1220406607065741</v>
+        <v>-0.8656134284117374</v>
       </c>
       <c r="D2">
-        <v>-0.3824596977052969</v>
+        <v>1.158194699184626</v>
       </c>
       <c r="E2">
-        <v>0.4529952984531944</v>
+        <v>1.186843519996163</v>
       </c>
       <c r="F2">
-        <v>0.3529159385505728</v>
-      </c>
-      <c r="G2">
-        <v>-0.0008705675291234075</v>
-      </c>
-      <c r="H2">
-        <v>0.1473068229033219</v>
-      </c>
-      <c r="I2">
-        <v>0.3047528119074769</v>
-      </c>
-      <c r="J2">
-        <v>-0.1959066446185939</v>
-      </c>
-      <c r="K2">
-        <v>0.08445123591687528</v>
+        <v>2.770372346455781</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +620,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-0.1395947820665385</v>
+        <v>1.239931507228801</v>
       </c>
       <c r="C3">
-        <v>-0.4000138190652613</v>
+        <v>1.268580328040338</v>
       </c>
       <c r="D3">
-        <v>0.4354411770932299</v>
+        <v>2.852109154499956</v>
       </c>
       <c r="E3">
-        <v>0.3353618171906084</v>
+        <v>4.544930042441671</v>
       </c>
       <c r="F3">
-        <v>-0.01842468888908786</v>
+        <v>0.4266466228357149</v>
       </c>
       <c r="G3">
-        <v>0.1297527015433575</v>
+        <v>0.01612894727267156</v>
       </c>
       <c r="H3">
-        <v>0.2871986905475125</v>
-      </c>
-      <c r="I3">
-        <v>-0.2134607659785583</v>
-      </c>
-      <c r="J3">
-        <v>0.06689711455691082</v>
-      </c>
-      <c r="K3">
-        <v>-0.1050777432881008</v>
+        <v>0.7346596165289111</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +646,19 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.3119065001142551</v>
+        <v>2.646269414624167</v>
       </c>
       <c r="C4">
-        <v>0.5235484960442361</v>
+        <v>4.339090302565882</v>
       </c>
       <c r="D4">
-        <v>0.4234691361416146</v>
+        <v>0.2208068829599255</v>
       </c>
       <c r="E4">
-        <v>0.06968263006191837</v>
+        <v>-0.1897107926031179</v>
       </c>
       <c r="F4">
-        <v>0.2178600204943637</v>
-      </c>
-      <c r="G4">
-        <v>0.3753060094985187</v>
-      </c>
-      <c r="H4">
-        <v>-0.1253534470275521</v>
-      </c>
-      <c r="I4">
-        <v>0.155004433507917</v>
-      </c>
-      <c r="J4">
-        <v>-0.01697042433709459</v>
-      </c>
-      <c r="K4">
-        <v>0.2888921154092369</v>
+        <v>0.5288198766531217</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +666,25 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.7021231295320197</v>
+        <v>-0.5974898394390895</v>
       </c>
       <c r="C5">
-        <v>0.6020437696293982</v>
+        <v>-1.008007515002133</v>
       </c>
       <c r="D5">
-        <v>0.248257263549702</v>
+        <v>-0.2894768457458933</v>
       </c>
       <c r="E5">
-        <v>0.3964346539821473</v>
+        <v>-0.4413199873666193</v>
       </c>
       <c r="F5">
-        <v>0.5538806429863024</v>
+        <v>-2.462060229143287</v>
       </c>
       <c r="G5">
-        <v>0.0532211864602315</v>
+        <v>-0.977984595383529</v>
       </c>
       <c r="H5">
-        <v>0.3335790669957007</v>
-      </c>
-      <c r="I5">
-        <v>0.161604209150689</v>
-      </c>
-      <c r="J5">
-        <v>0.4674667488970205</v>
-      </c>
-      <c r="K5">
-        <v>-0.1448632037902657</v>
+        <v>-0.6447655124219993</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +692,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1.514070997382048</v>
+        <v>-0.2939646841069006</v>
       </c>
       <c r="C6">
-        <v>1.160284491302352</v>
+        <v>-0.4458078257276266</v>
       </c>
       <c r="D6">
-        <v>1.308461881734797</v>
+        <v>-2.466548067504295</v>
       </c>
       <c r="E6">
-        <v>1.465907870738952</v>
+        <v>-0.9824724337445363</v>
       </c>
       <c r="F6">
-        <v>0.9652484142128814</v>
-      </c>
-      <c r="G6">
-        <v>1.245606294748351</v>
-      </c>
-      <c r="H6">
-        <v>1.073631436903339</v>
-      </c>
-      <c r="I6">
-        <v>1.379493976649671</v>
-      </c>
-      <c r="J6">
-        <v>0.7671640239623843</v>
-      </c>
-      <c r="K6">
-        <v>1.455535409161496</v>
+        <v>-0.6492533507830067</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,34 +712,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.2163102553365951</v>
+        <v>-2.542893978309402</v>
       </c>
       <c r="C7">
-        <v>0.3644876457690405</v>
+        <v>-1.058818344549643</v>
       </c>
       <c r="D7">
-        <v>0.5219336347731955</v>
+        <v>-0.7255992615881137</v>
       </c>
       <c r="E7">
-        <v>0.02127417824712469</v>
+        <v>-1.859984444184283</v>
       </c>
       <c r="F7">
-        <v>0.3016320587825939</v>
+        <v>-0.4800244837065165</v>
       </c>
       <c r="G7">
-        <v>0.1296572009375822</v>
+        <v>-0.8638202886166834</v>
       </c>
       <c r="H7">
-        <v>0.4355197406839137</v>
-      </c>
-      <c r="I7">
-        <v>-0.1768102120033725</v>
-      </c>
-      <c r="J7">
-        <v>0.511561173195739</v>
-      </c>
-      <c r="K7">
-        <v>0.2348700177716323</v>
+        <v>-0.1789343978423749</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -699,31 +738,19 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.3684555432821496</v>
+        <v>-0.5351204465965399</v>
       </c>
       <c r="C8">
-        <v>0.5259015322863045</v>
+        <v>-1.66950562919271</v>
       </c>
       <c r="D8">
-        <v>0.0252420757602338</v>
+        <v>-0.2895456687149427</v>
       </c>
       <c r="E8">
-        <v>0.305599956295703</v>
+        <v>-0.6733414736251095</v>
       </c>
       <c r="F8">
-        <v>0.1336250984506913</v>
-      </c>
-      <c r="G8">
-        <v>0.4394876381970228</v>
-      </c>
-      <c r="H8">
-        <v>-0.1728423144902634</v>
-      </c>
-      <c r="I8">
-        <v>0.5155290707088481</v>
-      </c>
-      <c r="J8">
-        <v>0.2388379152847414</v>
+        <v>0.0115444171491989</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -731,28 +758,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.661541622456546</v>
+        <v>0.01136921538350649</v>
       </c>
       <c r="C9">
-        <v>0.1608821659304752</v>
+        <v>-0.3724265895266604</v>
       </c>
       <c r="D9">
-        <v>0.4412400464659443</v>
+        <v>0.3124593012476481</v>
       </c>
       <c r="E9">
-        <v>0.2692651886209327</v>
+        <v>-0.3795660831340231</v>
       </c>
       <c r="F9">
-        <v>0.5751277283672642</v>
+        <v>-0.1401177391313942</v>
       </c>
       <c r="G9">
-        <v>-0.03720222432002201</v>
+        <v>-0.1033897623722235</v>
       </c>
       <c r="H9">
-        <v>0.6511691608790895</v>
-      </c>
-      <c r="I9">
-        <v>0.3744780054549828</v>
+        <v>0.723104312015092</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,25 +784,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.07992401592518952</v>
+        <v>0.9526635850093691</v>
       </c>
       <c r="C10">
-        <v>0.2004338646102796</v>
+        <v>0.2606382006276979</v>
       </c>
       <c r="D10">
-        <v>0.028459006765268</v>
+        <v>0.5000865446303268</v>
       </c>
       <c r="E10">
-        <v>0.3343215465115995</v>
+        <v>0.5368145213894975</v>
       </c>
       <c r="F10">
-        <v>-0.2780084061756867</v>
-      </c>
-      <c r="G10">
-        <v>0.4103629790234248</v>
-      </c>
-      <c r="H10">
-        <v>0.1336718235993181</v>
+        <v>1.363308595776813</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +804,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.1551026493581833</v>
+        <v>0.4274989419678774</v>
       </c>
       <c r="C11">
-        <v>-0.01687220848682837</v>
+        <v>0.4642269187270481</v>
       </c>
       <c r="D11">
-        <v>0.2889903312595031</v>
+        <v>1.290720993114364</v>
       </c>
       <c r="E11">
-        <v>-0.3233396214277831</v>
+        <v>0.6349227829927984</v>
       </c>
       <c r="F11">
-        <v>0.3650317637713285</v>
+        <v>-0.02322745673282245</v>
       </c>
       <c r="G11">
-        <v>0.08834060834722172</v>
+        <v>0.3758874911189606</v>
+      </c>
+      <c r="H11">
+        <v>0.3144509489973832</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -809,19 +830,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.08373363042288225</v>
+        <v>1.235029948750828</v>
       </c>
       <c r="C12">
-        <v>0.2221289093234493</v>
+        <v>0.5792317386292632</v>
       </c>
       <c r="D12">
-        <v>-0.3902010433638369</v>
+        <v>-0.07891850109635756</v>
       </c>
       <c r="E12">
-        <v>0.2981703418352746</v>
+        <v>0.3201964467554255</v>
       </c>
       <c r="F12">
-        <v>0.02147918641116785</v>
+        <v>0.2587599046338481</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,16 +850,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.1925427069667326</v>
+        <v>-0.4329776612703231</v>
       </c>
       <c r="C13">
-        <v>-0.4197872457205535</v>
+        <v>-0.03386271341853997</v>
       </c>
       <c r="D13">
-        <v>0.268584139478558</v>
+        <v>-0.09529925554011737</v>
       </c>
       <c r="E13">
-        <v>-0.00810701594554874</v>
+        <v>-0.529465190657221</v>
+      </c>
+      <c r="F13">
+        <v>0.449336201421856</v>
+      </c>
+      <c r="G13">
+        <v>0.2222202969739298</v>
+      </c>
+      <c r="H13">
+        <v>-0.4112394324521587</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -846,13 +876,19 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.4379379024501944</v>
+        <v>-0.1856174723396913</v>
       </c>
       <c r="C14">
-        <v>0.2504334827489171</v>
+        <v>-0.6197834074567948</v>
       </c>
       <c r="D14">
-        <v>-0.02625767267518964</v>
+        <v>0.3590179846222821</v>
+      </c>
+      <c r="E14">
+        <v>0.1319020801743559</v>
+      </c>
+      <c r="F14">
+        <v>-0.5015576492517326</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -860,10 +896,25 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.2324016585002178</v>
+        <v>0.4273407187267424</v>
       </c>
       <c r="C15">
-        <v>-0.04428949692388896</v>
+        <v>0.2002248142788162</v>
+      </c>
+      <c r="D15">
+        <v>-0.4332349151472724</v>
+      </c>
+      <c r="E15">
+        <v>-0.005837956491668017</v>
+      </c>
+      <c r="F15">
+        <v>-0.1721749111798149</v>
+      </c>
+      <c r="G15">
+        <v>-0.0494638947389891</v>
+      </c>
+      <c r="H15">
+        <v>-0.002230158183848807</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -871,6 +922,1001 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-0.5318964931771777</v>
+      </c>
+      <c r="C16">
+        <v>-0.1044995345215733</v>
+      </c>
+      <c r="D16">
+        <v>-0.2708364892097202</v>
+      </c>
+      <c r="E16">
+        <v>-0.1481254727688944</v>
+      </c>
+      <c r="F16">
+        <v>-0.1008917362137541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-0.1938269109680474</v>
+      </c>
+      <c r="C17">
+        <v>-0.07111589452722158</v>
+      </c>
+      <c r="D17">
+        <v>-0.02388215797208129</v>
+      </c>
+      <c r="E17">
+        <v>-0.4205008894945329</v>
+      </c>
+      <c r="F17">
+        <v>-0.1664488543708128</v>
+      </c>
+      <c r="G17">
+        <v>0.0536755355027598</v>
+      </c>
+      <c r="H17">
+        <v>-0.1821129130839084</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0.1476338940440795</v>
+      </c>
+      <c r="C18">
+        <v>-0.2489848374783721</v>
+      </c>
+      <c r="D18">
+        <v>0.005067197645347965</v>
+      </c>
+      <c r="E18">
+        <v>0.2251915875189206</v>
+      </c>
+      <c r="F18">
+        <v>-0.0105968610677476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>-0.0323979044984018</v>
+      </c>
+      <c r="C19">
+        <v>0.1877264853751708</v>
+      </c>
+      <c r="D19">
+        <v>-0.04806196321149736</v>
+      </c>
+      <c r="E19">
+        <v>-0.2270347206822821</v>
+      </c>
+      <c r="F19">
+        <v>-0.2375952509416031</v>
+      </c>
+      <c r="G19">
+        <v>-0.4453143610997332</v>
+      </c>
+      <c r="H19">
+        <v>-0.2281054616248284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-0.06996447561954</v>
+      </c>
+      <c r="C20">
+        <v>-0.2489372330903247</v>
+      </c>
+      <c r="D20">
+        <v>-0.2594977633496457</v>
+      </c>
+      <c r="E20">
+        <v>-0.4672168735077758</v>
+      </c>
+      <c r="F20">
+        <v>-0.2500079740328711</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-0.1713918715036764</v>
+      </c>
+      <c r="C21">
+        <v>-0.3791109816618064</v>
+      </c>
+      <c r="D21">
+        <v>-0.1619020821869017</v>
+      </c>
+      <c r="E21">
+        <v>0.1477840870711598</v>
+      </c>
+      <c r="F21">
+        <v>-0.006520046760844223</v>
+      </c>
+      <c r="G21">
+        <v>0.643906374458339</v>
+      </c>
+      <c r="H21">
+        <v>0.4277413258401298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>-0.06818896562035748</v>
+      </c>
+      <c r="C22">
+        <v>0.241497203637704</v>
+      </c>
+      <c r="D22">
+        <v>0.08719306980569996</v>
+      </c>
+      <c r="E22">
+        <v>0.7376194910248832</v>
+      </c>
+      <c r="F22">
+        <v>0.521454442406674</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0.2497007499081394</v>
+      </c>
+      <c r="C23">
+        <v>0.09539661607613537</v>
+      </c>
+      <c r="D23">
+        <v>0.7458230372953185</v>
+      </c>
+      <c r="E23">
+        <v>0.5296579886771094</v>
+      </c>
+      <c r="F23">
+        <v>0.1226288596421531</v>
+      </c>
+      <c r="G23">
+        <v>0.6216710768195729</v>
+      </c>
+      <c r="H23">
+        <v>0.4628221636640603</v>
+      </c>
+      <c r="I23">
+        <v>0.5189859846343043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>0.09280705542466716</v>
+      </c>
+      <c r="C24">
+        <v>0.7432334766438504</v>
+      </c>
+      <c r="D24">
+        <v>0.5270684280256412</v>
+      </c>
+      <c r="E24">
+        <v>0.1200392989906849</v>
+      </c>
+      <c r="F24">
+        <v>0.6190815161681047</v>
+      </c>
+      <c r="G24">
+        <v>0.4602326030125921</v>
+      </c>
+      <c r="H24">
+        <v>0.5163964239828361</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>0.7497668092269023</v>
+      </c>
+      <c r="C25">
+        <v>0.5336017606086931</v>
+      </c>
+      <c r="D25">
+        <v>0.1265726315737368</v>
+      </c>
+      <c r="E25">
+        <v>0.6256148487511566</v>
+      </c>
+      <c r="F25">
+        <v>0.466765935595644</v>
+      </c>
+      <c r="G25">
+        <v>0.522929756565888</v>
+      </c>
+      <c r="H25">
+        <v>2.77273259617728</v>
+      </c>
+      <c r="I25">
+        <v>10.24188292703457</v>
+      </c>
+      <c r="J25">
+        <v>-7.929378873102896</v>
+      </c>
+      <c r="K25">
+        <v>0.2102926738762539</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0.4223850656296224</v>
+      </c>
+      <c r="C26">
+        <v>0.01535593659466611</v>
+      </c>
+      <c r="D26">
+        <v>0.5143981537720859</v>
+      </c>
+      <c r="E26">
+        <v>0.3555492406165733</v>
+      </c>
+      <c r="F26">
+        <v>0.4117130615868174</v>
+      </c>
+      <c r="G26">
+        <v>2.661515901198209</v>
+      </c>
+      <c r="H26">
+        <v>10.1306662320555</v>
+      </c>
+      <c r="I26">
+        <v>-8.040595568081965</v>
+      </c>
+      <c r="J26">
+        <v>0.09907597889718328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>-0.02639020739223796</v>
+      </c>
+      <c r="C27">
+        <v>0.4726520097851818</v>
+      </c>
+      <c r="D27">
+        <v>0.3138030966296693</v>
+      </c>
+      <c r="E27">
+        <v>0.3699669175999133</v>
+      </c>
+      <c r="F27">
+        <v>2.619769757211305</v>
+      </c>
+      <c r="G27">
+        <v>10.0889200880686</v>
+      </c>
+      <c r="H27">
+        <v>-8.082341712068869</v>
+      </c>
+      <c r="I27">
+        <v>0.05732983491027921</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>0.4979670725178967</v>
+      </c>
+      <c r="C28">
+        <v>0.3391181593623842</v>
+      </c>
+      <c r="D28">
+        <v>0.3952819803326282</v>
+      </c>
+      <c r="E28">
+        <v>2.64508481994402</v>
+      </c>
+      <c r="F28">
+        <v>10.11423515080131</v>
+      </c>
+      <c r="G28">
+        <v>-8.057026649336155</v>
+      </c>
+      <c r="H28">
+        <v>0.0826448976429941</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>0.343156824405298</v>
+      </c>
+      <c r="C29">
+        <v>0.3993206453755421</v>
+      </c>
+      <c r="D29">
+        <v>2.649123484986935</v>
+      </c>
+      <c r="E29">
+        <v>10.11827381584423</v>
+      </c>
+      <c r="F29">
+        <v>-8.052987984293241</v>
+      </c>
+      <c r="G29">
+        <v>0.08668356268590799</v>
+      </c>
+      <c r="H29">
+        <v>2.2342540344853</v>
+      </c>
+      <c r="I29">
+        <v>-1.20577595203803</v>
+      </c>
+      <c r="J29">
+        <v>-1.266950130452231</v>
+      </c>
+      <c r="K29">
+        <v>0.7745058067040239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>0.2804435086845197</v>
+      </c>
+      <c r="C30">
+        <v>2.530246348295912</v>
+      </c>
+      <c r="D30">
+        <v>9.999396679153206</v>
+      </c>
+      <c r="E30">
+        <v>-8.171865120984263</v>
+      </c>
+      <c r="F30">
+        <v>-0.03219357400511441</v>
+      </c>
+      <c r="G30">
+        <v>2.115376897794278</v>
+      </c>
+      <c r="H30">
+        <v>-1.324653088729052</v>
+      </c>
+      <c r="I30">
+        <v>-1.385827267143253</v>
+      </c>
+      <c r="J30">
+        <v>0.6556286700130015</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>2.48932270964054</v>
+      </c>
+      <c r="C31">
+        <v>9.958473040497832</v>
+      </c>
+      <c r="D31">
+        <v>-8.212788759639636</v>
+      </c>
+      <c r="E31">
+        <v>-0.07311721266048643</v>
+      </c>
+      <c r="F31">
+        <v>2.074453259138906</v>
+      </c>
+      <c r="G31">
+        <v>-1.365576727384424</v>
+      </c>
+      <c r="H31">
+        <v>-1.426750905798625</v>
+      </c>
+      <c r="I31">
+        <v>0.6147050313576294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>9.643547872076862</v>
+      </c>
+      <c r="C32">
+        <v>-8.527713928060606</v>
+      </c>
+      <c r="D32">
+        <v>-0.388042381081458</v>
+      </c>
+      <c r="E32">
+        <v>1.759528090717934</v>
+      </c>
+      <c r="F32">
+        <v>-1.680501895805395</v>
+      </c>
+      <c r="G32">
+        <v>-1.741676074219596</v>
+      </c>
+      <c r="H32">
+        <v>0.2997798629366579</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>-9.584088888243137</v>
+      </c>
+      <c r="C33">
+        <v>-1.444417341263988</v>
+      </c>
+      <c r="D33">
+        <v>0.7031531305354048</v>
+      </c>
+      <c r="E33">
+        <v>-2.736876855987925</v>
+      </c>
+      <c r="F33">
+        <v>-2.798051034402126</v>
+      </c>
+      <c r="G33">
+        <v>-0.7565950972458717</v>
+      </c>
+      <c r="H33">
+        <v>-1.339189634279513</v>
+      </c>
+      <c r="I33">
+        <v>-1.243514593470155</v>
+      </c>
+      <c r="J33">
+        <v>-1.503933630468878</v>
+      </c>
+      <c r="K33">
+        <v>-0.6684786343103865</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>-0.573770965293057</v>
+      </c>
+      <c r="C34">
+        <v>1.573799506506335</v>
+      </c>
+      <c r="D34">
+        <v>-1.866230480016994</v>
+      </c>
+      <c r="E34">
+        <v>-1.927404658431195</v>
+      </c>
+      <c r="F34">
+        <v>0.1140512787250589</v>
+      </c>
+      <c r="G34">
+        <v>-0.4685432583085821</v>
+      </c>
+      <c r="H34">
+        <v>-0.3728682174992243</v>
+      </c>
+      <c r="I34">
+        <v>-0.6332872544979471</v>
+      </c>
+      <c r="J34">
+        <v>0.2021677416605441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>1.563148290176452</v>
+      </c>
+      <c r="C35">
+        <v>-1.876881696346878</v>
+      </c>
+      <c r="D35">
+        <v>-1.938055874761079</v>
+      </c>
+      <c r="E35">
+        <v>0.1034000623951754</v>
+      </c>
+      <c r="F35">
+        <v>-0.4791944746384656</v>
+      </c>
+      <c r="G35">
+        <v>-0.3835194338291078</v>
+      </c>
+      <c r="H35">
+        <v>-0.6439384708278306</v>
+      </c>
+      <c r="I35">
+        <v>0.1915165253306606</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>-1.985496228563019</v>
+      </c>
+      <c r="C36">
+        <v>-2.04667040697722</v>
+      </c>
+      <c r="D36">
+        <v>-0.005214469820965406</v>
+      </c>
+      <c r="E36">
+        <v>-0.5878090068546065</v>
+      </c>
+      <c r="F36">
+        <v>-0.4921339660452486</v>
+      </c>
+      <c r="G36">
+        <v>-0.7525530030439714</v>
+      </c>
+      <c r="H36">
+        <v>0.08290199311451979</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>-1.838568686009481</v>
+      </c>
+      <c r="C37">
+        <v>0.2028872511467736</v>
+      </c>
+      <c r="D37">
+        <v>-0.3797072858868674</v>
+      </c>
+      <c r="E37">
+        <v>-0.2840322450775096</v>
+      </c>
+      <c r="F37">
+        <v>-0.5444512820762324</v>
+      </c>
+      <c r="G37">
+        <v>0.2910037140822588</v>
+      </c>
+      <c r="H37">
+        <v>0.1909243541796373</v>
+      </c>
+      <c r="I37">
+        <v>-0.1628621519000589</v>
+      </c>
+      <c r="J37">
+        <v>-0.01468476146761361</v>
+      </c>
+      <c r="K37">
+        <v>0.1427612275365414</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>0.319385421520574</v>
+      </c>
+      <c r="C38">
+        <v>-0.263209115513067</v>
+      </c>
+      <c r="D38">
+        <v>-0.1675340747037092</v>
+      </c>
+      <c r="E38">
+        <v>-0.427953111702432</v>
+      </c>
+      <c r="F38">
+        <v>0.4075018844560592</v>
+      </c>
+      <c r="G38">
+        <v>0.3074225245534377</v>
+      </c>
+      <c r="H38">
+        <v>-0.04636398152625851</v>
+      </c>
+      <c r="I38">
+        <v>0.1018134089061868</v>
+      </c>
+      <c r="J38">
+        <v>0.2592593979103418</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>-0.2177157015159319</v>
+      </c>
+      <c r="C39">
+        <v>-0.1220406607065741</v>
+      </c>
+      <c r="D39">
+        <v>-0.3824596977052969</v>
+      </c>
+      <c r="E39">
+        <v>0.4529952984531944</v>
+      </c>
+      <c r="F39">
+        <v>0.3529159385505728</v>
+      </c>
+      <c r="G39">
+        <v>-0.0008705675291234075</v>
+      </c>
+      <c r="H39">
+        <v>0.1473068229033219</v>
+      </c>
+      <c r="I39">
+        <v>0.3047528119074769</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>-0.1395947820665385</v>
+      </c>
+      <c r="C40">
+        <v>-0.4000138190652613</v>
+      </c>
+      <c r="D40">
+        <v>0.4354411770932299</v>
+      </c>
+      <c r="E40">
+        <v>0.3353618171906084</v>
+      </c>
+      <c r="F40">
+        <v>-0.01842468888908786</v>
+      </c>
+      <c r="G40">
+        <v>0.1297527015433575</v>
+      </c>
+      <c r="H40">
+        <v>0.2871986905475125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>-0.3119065001142551</v>
+      </c>
+      <c r="C41">
+        <v>0.5235484960442361</v>
+      </c>
+      <c r="D41">
+        <v>0.4234691361416146</v>
+      </c>
+      <c r="E41">
+        <v>0.06968263006191837</v>
+      </c>
+      <c r="F41">
+        <v>0.2178600204943637</v>
+      </c>
+      <c r="G41">
+        <v>0.3753060094985187</v>
+      </c>
+      <c r="H41">
+        <v>-0.1253534470275521</v>
+      </c>
+      <c r="I41">
+        <v>0.155004433507917</v>
+      </c>
+      <c r="J41">
+        <v>-0.01697042433709459</v>
+      </c>
+      <c r="K41">
+        <v>0.2888921154092369</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>0.7021231295320197</v>
+      </c>
+      <c r="C42">
+        <v>0.6020437696293982</v>
+      </c>
+      <c r="D42">
+        <v>0.248257263549702</v>
+      </c>
+      <c r="E42">
+        <v>0.3964346539821473</v>
+      </c>
+      <c r="F42">
+        <v>0.5538806429863024</v>
+      </c>
+      <c r="G42">
+        <v>0.0532211864602315</v>
+      </c>
+      <c r="H42">
+        <v>0.3335790669957007</v>
+      </c>
+      <c r="I42">
+        <v>0.161604209150689</v>
+      </c>
+      <c r="J42">
+        <v>0.4674667488970205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>1.514070997382048</v>
+      </c>
+      <c r="C43">
+        <v>1.160284491302352</v>
+      </c>
+      <c r="D43">
+        <v>1.308461881734797</v>
+      </c>
+      <c r="E43">
+        <v>1.465907870738952</v>
+      </c>
+      <c r="F43">
+        <v>0.9652484142128814</v>
+      </c>
+      <c r="G43">
+        <v>1.245606294748351</v>
+      </c>
+      <c r="H43">
+        <v>1.073631436903339</v>
+      </c>
+      <c r="I43">
+        <v>1.379493976649671</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>0.2163102553365951</v>
+      </c>
+      <c r="C44">
+        <v>0.3644876457690405</v>
+      </c>
+      <c r="D44">
+        <v>0.5219336347731955</v>
+      </c>
+      <c r="E44">
+        <v>0.02127417824712469</v>
+      </c>
+      <c r="F44">
+        <v>0.3016320587825939</v>
+      </c>
+      <c r="G44">
+        <v>0.1296572009375822</v>
+      </c>
+      <c r="H44">
+        <v>0.4355197406839137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>0.3684555432821496</v>
+      </c>
+      <c r="C45">
+        <v>0.5259015322863045</v>
+      </c>
+      <c r="D45">
+        <v>0.0252420757602338</v>
+      </c>
+      <c r="E45">
+        <v>0.305599956295703</v>
+      </c>
+      <c r="F45">
+        <v>0.1336250984506913</v>
+      </c>
+      <c r="G45">
+        <v>0.4394876381970228</v>
+      </c>
+      <c r="H45">
+        <v>-0.1728423144902634</v>
+      </c>
+      <c r="I45">
+        <v>0.5155290707088481</v>
+      </c>
+      <c r="J45">
+        <v>0.2388379152847414</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>0.661541622456546</v>
+      </c>
+      <c r="C46">
+        <v>0.1608821659304752</v>
+      </c>
+      <c r="D46">
+        <v>0.4412400464659443</v>
+      </c>
+      <c r="E46">
+        <v>0.2692651886209327</v>
+      </c>
+      <c r="F46">
+        <v>0.5751277283672642</v>
+      </c>
+      <c r="G46">
+        <v>-0.03720222432002201</v>
+      </c>
+      <c r="H46">
+        <v>0.6511691608790895</v>
+      </c>
+      <c r="I46">
+        <v>0.3744780054549828</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>-0.07992401592518952</v>
+      </c>
+      <c r="C47">
+        <v>0.2004338646102796</v>
+      </c>
+      <c r="D47">
+        <v>0.028459006765268</v>
+      </c>
+      <c r="E47">
+        <v>0.3343215465115995</v>
+      </c>
+      <c r="F47">
+        <v>-0.2780084061756867</v>
+      </c>
+      <c r="G47">
+        <v>0.4103629790234248</v>
+      </c>
+      <c r="H47">
+        <v>0.1336718235993181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>0.1551026493581833</v>
+      </c>
+      <c r="C48">
+        <v>-0.01687220848682837</v>
+      </c>
+      <c r="D48">
+        <v>0.2889903312595031</v>
+      </c>
+      <c r="E48">
+        <v>-0.3233396214277831</v>
+      </c>
+      <c r="F48">
+        <v>0.3650317637713285</v>
+      </c>
+      <c r="G48">
+        <v>0.08834060834722172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>-0.08373363042288225</v>
+      </c>
+      <c r="C49">
+        <v>0.2221289093234493</v>
+      </c>
+      <c r="D49">
+        <v>-0.3902010433638369</v>
+      </c>
+      <c r="E49">
+        <v>0.2981703418352746</v>
+      </c>
+      <c r="F49">
+        <v>0.02147918641116785</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>0.1925427069667326</v>
+      </c>
+      <c r="C50">
+        <v>-0.4197872457205535</v>
+      </c>
+      <c r="D50">
+        <v>0.268584139478558</v>
+      </c>
+      <c r="E50">
+        <v>-0.00810701594554874</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>-0.4379379024501944</v>
+      </c>
+      <c r="C51">
+        <v>0.2504334827489171</v>
+      </c>
+      <c r="D51">
+        <v>-0.02625767267518964</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>0.2324016585002178</v>
+      </c>
+      <c r="C52">
+        <v>-0.04428949692388896</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
         <v>-0.09587373626955231</v>
       </c>
     </row>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Q0</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>2025-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2025-10-01 00:00:00_diff</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1920,6 +1923,11 @@
         <v>-0.09587373626955231</v>
       </c>
     </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
